--- a/Forecast checks_23.xlsx
+++ b/Forecast checks_23.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhilajoseph/Documents/DS/Projects/Akhila-Joseph-Projects/Project_5/Covid-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9D61DF-C8C1-7F4E-A74E-5B12B4B59BAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B509A6-939E-9342-8695-E427DA8B5D37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13120" yWindow="-16460" windowWidth="18660" windowHeight="13420" xr2:uid="{33AF708B-0BA3-1049-82BF-C130CD4F8AE1}"/>
+    <workbookView xWindow="13120" yWindow="-16460" windowWidth="18660" windowHeight="13420" activeTab="3" xr2:uid="{33AF708B-0BA3-1049-82BF-C130CD4F8AE1}"/>
   </bookViews>
   <sheets>
-    <sheet name="6" sheetId="8" r:id="rId1"/>
-    <sheet name="7" sheetId="9" r:id="rId2"/>
-    <sheet name="3" sheetId="10" r:id="rId3"/>
-    <sheet name="5" sheetId="11" r:id="rId4"/>
+    <sheet name="5 steps" sheetId="11" r:id="rId1"/>
+    <sheet name="6 steps" sheetId="8" r:id="rId2"/>
+    <sheet name="7 steps" sheetId="9" r:id="rId3"/>
+    <sheet name="3 steps" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -471,11 +471,446 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B15405-CF17-3649-860C-B373EF814AEE}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="7">
+        <f>AVERAGE(F3:F15)</f>
+        <v>8.1514812395051955E-2</v>
+      </c>
+      <c r="G1" s="7">
+        <f>AVERAGE(G3:G15)</f>
+        <v>7.4397202427719342E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>43931</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1657526</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1512711</v>
+      </c>
+      <c r="D3" s="1">
+        <v>102525</v>
+      </c>
+      <c r="E3" s="1">
+        <v>96424</v>
+      </c>
+      <c r="F3" s="3">
+        <f>ABS((B3-C3))/B3</f>
+        <v>8.736816194738424E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <f>ABS((D3-E3))/D3</f>
+        <v>5.9507437210436477E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>43932</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1735650</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1583852</v>
+      </c>
+      <c r="D4" s="1">
+        <v>108502</v>
+      </c>
+      <c r="E4" s="1">
+        <v>101822</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F15" si="0">ABS((B4-C4))/B4</f>
+        <v>8.7458877077751851E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G15" si="1">ABS((D4-E4))/D4</f>
+        <v>6.1565685425153456E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>43933</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1834721</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1656176</v>
+      </c>
+      <c r="D5" s="1">
+        <v>114090</v>
+      </c>
+      <c r="E5" s="1">
+        <v>107301</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>9.7314523570613737E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>5.9505653431501444E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>43934</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1904838</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1725194</v>
+      </c>
+      <c r="D6" s="1">
+        <v>119481</v>
+      </c>
+      <c r="E6" s="1">
+        <v>112572</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>9.4309332342172925E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>5.7825093529515155E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>43935</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1976191</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1790519</v>
+      </c>
+      <c r="D7" s="1">
+        <v>125983</v>
+      </c>
+      <c r="E7" s="1">
+        <v>117598</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>9.3954481120498978E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6556598906201636E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>43936</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2056054</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1849777</v>
+      </c>
+      <c r="D8" s="1">
+        <v>134176</v>
+      </c>
+      <c r="E8" s="1">
+        <v>122173</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1003266451172975</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>8.9457130932506554E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>43937</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2152437</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1932331</v>
+      </c>
+      <c r="D9" s="1">
+        <v>143800</v>
+      </c>
+      <c r="E9" s="1">
+        <v>128496</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10225897436254812</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10642559109874826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>43938</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2240190</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2018406</v>
+      </c>
+      <c r="D10" s="1">
+        <v>153821</v>
+      </c>
+      <c r="E10" s="1">
+        <v>135126</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>9.9002316767774157E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.12153737136021739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>43939</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2317758</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2108871</v>
+      </c>
+      <c r="D11" s="1">
+        <v>159509</v>
+      </c>
+      <c r="E11" s="1">
+        <v>142122</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>9.0124594543520078E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10900325373489897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>43940</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2401101</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2206244</v>
+      </c>
+      <c r="D12" s="8">
+        <v>165043</v>
+      </c>
+      <c r="E12" s="1">
+        <v>149697</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>8.1153187641835975E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>9.2981828977902733E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>43941</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2472258</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2314006</v>
+      </c>
+      <c r="D13" s="8">
+        <v>169985</v>
+      </c>
+      <c r="E13" s="1">
+        <v>158125</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>6.4011118580665938E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>6.9770862134894251E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>43942</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2549293</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2437508</v>
+      </c>
+      <c r="D14" s="8">
+        <v>176582</v>
+      </c>
+      <c r="E14" s="1">
+        <v>167845</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>4.384941236648749E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>4.9478429284978087E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>43943</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2623413</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2574720</v>
+      </c>
+      <c r="D15" s="8">
+        <v>183025</v>
+      </c>
+      <c r="E15" s="1">
+        <v>178715</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8560935697124317E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3548695533397078E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>43944</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2729542</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>191068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>43945</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2907331</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>205366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>43946</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3114722</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>222195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="6">
+        <v>176582</v>
+      </c>
+      <c r="E23">
+        <v>183025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFA4B7F-B8BE-9B47-A52B-531CCAD873AF}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -905,7 +1340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DED838E-0B10-6743-A703-75478FB98355}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -1340,12 +1775,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D83ECF0-E347-A84D-9CC9-38D2AB89E56B}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D15"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1773,439 +2208,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B15405-CF17-3649-860C-B373EF814AEE}">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F1" s="7">
-        <f>AVERAGE(F3:F15)</f>
-        <v>8.1514812395051955E-2</v>
-      </c>
-      <c r="G1" s="7">
-        <f>AVERAGE(G3:G15)</f>
-        <v>7.4397202427719342E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>43931</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1657526</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1512711</v>
-      </c>
-      <c r="D3" s="1">
-        <v>102525</v>
-      </c>
-      <c r="E3" s="1">
-        <v>96424</v>
-      </c>
-      <c r="F3" s="3">
-        <f>ABS((B3-C3))/B3</f>
-        <v>8.736816194738424E-2</v>
-      </c>
-      <c r="G3" s="3">
-        <f>ABS((D3-E3))/D3</f>
-        <v>5.9507437210436477E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>43932</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1735650</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1583852</v>
-      </c>
-      <c r="D4" s="1">
-        <v>108502</v>
-      </c>
-      <c r="E4" s="1">
-        <v>101822</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" ref="F4:F15" si="0">ABS((B4-C4))/B4</f>
-        <v>8.7458877077751851E-2</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" ref="G4:G15" si="1">ABS((D4-E4))/D4</f>
-        <v>6.1565685425153456E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>43933</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1834721</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1656176</v>
-      </c>
-      <c r="D5" s="1">
-        <v>114090</v>
-      </c>
-      <c r="E5" s="1">
-        <v>107301</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>9.7314523570613737E-2</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="1"/>
-        <v>5.9505653431501444E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>43934</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1904838</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1725194</v>
-      </c>
-      <c r="D6" s="1">
-        <v>119481</v>
-      </c>
-      <c r="E6" s="1">
-        <v>112572</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>9.4309332342172925E-2</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="1"/>
-        <v>5.7825093529515155E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>43935</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1976191</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1790519</v>
-      </c>
-      <c r="D7" s="1">
-        <v>125983</v>
-      </c>
-      <c r="E7" s="1">
-        <v>117598</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>9.3954481120498978E-2</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="1"/>
-        <v>6.6556598906201636E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>43936</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2056054</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1849777</v>
-      </c>
-      <c r="D8" s="1">
-        <v>134176</v>
-      </c>
-      <c r="E8" s="1">
-        <v>122173</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.1003266451172975</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="1"/>
-        <v>8.9457130932506554E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>43937</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2152437</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1932331</v>
-      </c>
-      <c r="D9" s="1">
-        <v>143800</v>
-      </c>
-      <c r="E9" s="1">
-        <v>128496</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.10225897436254812</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="1"/>
-        <v>0.10642559109874826</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>43938</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2240190</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2018406</v>
-      </c>
-      <c r="D10" s="1">
-        <v>153821</v>
-      </c>
-      <c r="E10" s="1">
-        <v>135126</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>9.9002316767774157E-2</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="1"/>
-        <v>0.12153737136021739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>43939</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2317758</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2108871</v>
-      </c>
-      <c r="D11" s="1">
-        <v>159509</v>
-      </c>
-      <c r="E11" s="1">
-        <v>142122</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>9.0124594543520078E-2</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.10900325373489897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>43940</v>
-      </c>
-      <c r="B12" s="10">
-        <v>2401101</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2206244</v>
-      </c>
-      <c r="D12" s="8">
-        <v>165043</v>
-      </c>
-      <c r="E12" s="1">
-        <v>149697</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>8.1153187641835975E-2</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="1"/>
-        <v>9.2981828977902733E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>43941</v>
-      </c>
-      <c r="B13" s="11">
-        <v>2472258</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2314006</v>
-      </c>
-      <c r="D13" s="8">
-        <v>169985</v>
-      </c>
-      <c r="E13" s="1">
-        <v>158125</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>6.4011118580665938E-2</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="1"/>
-        <v>6.9770862134894251E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>43942</v>
-      </c>
-      <c r="B14" s="11">
-        <v>2549293</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2437508</v>
-      </c>
-      <c r="D14" s="8">
-        <v>176582</v>
-      </c>
-      <c r="E14" s="1">
-        <v>167845</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>4.384941236648749E-2</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="1"/>
-        <v>4.9478429284978087E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>43943</v>
-      </c>
-      <c r="B15" s="11">
-        <v>2623413</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2574720</v>
-      </c>
-      <c r="D15" s="8">
-        <v>183025</v>
-      </c>
-      <c r="E15" s="1">
-        <v>178715</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8560935697124317E-2</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="1"/>
-        <v>2.3548695533397078E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>43944</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2729542</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>191068</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>43945</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2907331</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>205366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>43946</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3114722</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>222195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D23" s="6">
-        <v>176582</v>
-      </c>
-      <c r="E23">
-        <v>183025</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>